--- a/MenstruAccion/cuanto_cuesta_menstruar/2021 Marzo/Fuentes/serie_precios_pgm.xlsx
+++ b/MenstruAccion/cuanto_cuesta_menstruar/2021 Marzo/Fuentes/serie_precios_pgm.xlsx
@@ -37,7 +37,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="165" formatCode="mmm\-yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -208,17 +208,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -273,6 +273,17 @@
       </c>
       <c r="C5" s="0" t="n">
         <v>13.72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>14.59</v>
       </c>
     </row>
   </sheetData>
